--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/NOCIRCUIT.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/NOCIRCUIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCB596-6E0D-4F83-B9E9-BEA1B800FAE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78225F31-3181-4B08-9826-D26786D147F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,6 +780,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -847,8 +850,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +872,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +880,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +904,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +952,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +960,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>96</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +1000,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1016,7 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1048,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1056,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1064,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1096,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1104,7 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1112,7 @@
         <v>114</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1144,7 @@
         <v>118</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1152,7 @@
         <v>119</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1160,7 @@
         <v>120</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2000,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,8 +2035,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>13</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,8 +2049,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>14</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,8 +2063,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>15</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
